--- a/ESTADOS.xlsx
+++ b/ESTADOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AXEL\DOCUMENTOS\U\GITHUB\P2_LP_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BF9AE2-5953-4D09-969C-2D55E551B8A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA0EBFA-7F31-4978-8B43-5706E57630F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4065" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>ESTADOS</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>elif txt[n]==num</t>
+  </si>
+  <si>
+    <t>;|''</t>
   </si>
 </sst>
 </file>
@@ -540,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J37"/>
+  <dimension ref="B1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +776,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -786,258 +789,269 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="11" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="F20" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="10" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="F23" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F24" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="13" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="F25" s="13" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>34</v>
+      <c r="F28" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>27</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="F30" s="13" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="13" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="10" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="13" t="s">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F37" s="9" t="s">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G38" s="9" t="s">
         <v>32</v>
       </c>
     </row>
